--- a/DependencyFlow.xlsx
+++ b/DependencyFlow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Step</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -310,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,7 +349,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -805,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -840,7 +839,7 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="14"/>
@@ -857,14 +856,14 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DependencyFlow.xlsx
+++ b/DependencyFlow.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3296E-079F-44CB-A073-131CB231A3FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Step</t>
   </si>
@@ -82,12 +83,24 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>AirSpace</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -303,11 +316,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +410,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,16 +699,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -861,9 +929,174 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="I18" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
